--- a/utils/estructura-encuesta-aspirantes.xlsx
+++ b/utils/estructura-encuesta-aspirantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unlu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jumaf\Documents\GitHub\ia-abandono\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC6F1EC-DF4B-47A4-945E-97B88ED481F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F13BF1F-8CF7-4B4D-8429-BB8686D3690E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EA48A7F7-A25F-487B-A488-03BCBBAF29B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA48A7F7-A25F-487B-A488-03BCBBAF29B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Encuesta Socio-Economica" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Documento</t>
   </si>
@@ -75,187 +75,190 @@
     <t>5-Otras razones</t>
   </si>
   <si>
-    <t>6-¿Cursas actualmente en un establecimiento educacional?</t>
-  </si>
-  <si>
-    <t>7-¿Qué nivel estás cursando?</t>
-  </si>
-  <si>
-    <t>8-¿Cuál fue el nivel mas alto que terminaste?</t>
-  </si>
-  <si>
-    <t>9-¿Terminaste o estás cursando tus estudios en un Colegio?</t>
-  </si>
-  <si>
-    <t>10-¿El Colegio es… (Privado/Público)</t>
-  </si>
-  <si>
-    <t>11-Número del Colegio</t>
-  </si>
-  <si>
-    <t>12-Nombre del Colegio</t>
-  </si>
-  <si>
-    <t>13-País</t>
-  </si>
-  <si>
-    <t>13-Provincia</t>
-  </si>
-  <si>
-    <t>13-Partido/Depto</t>
-  </si>
-  <si>
-    <t>14-El Título que tenés o vas a tener es (Opciones)</t>
-  </si>
-  <si>
-    <t>15-Orientación del título de Nivel Medio o Polimodal</t>
-  </si>
-  <si>
-    <t>16-¿Pensás pedir alguna beca que te ayude a cubrir los gastos de estudios?</t>
-  </si>
-  <si>
-    <t>17-¿Tenés Obra Social y/o Mutual?</t>
-  </si>
-  <si>
-    <t>18-¿Trabajás actualmente?</t>
-  </si>
-  <si>
-    <t>19-La relación que hay entre tu trabajo y la Carrera que elegiste cursar es:</t>
-  </si>
-  <si>
-    <t>20-En tu trabajo principal sos...</t>
-  </si>
-  <si>
-    <t>21-¿En cuál de las siguientes ramas de la actividad ubicarías a tu trabajo principal?</t>
-  </si>
-  <si>
-    <t>22-¿Tu trabajo principal es?</t>
-  </si>
-  <si>
     <t>23-¿Tu trabajo principal es?</t>
   </si>
   <si>
-    <t>24-En una semana normal de trabajo ¿cuántas horas trabajás?</t>
-  </si>
-  <si>
-    <t>25-Tus horarios son…</t>
-  </si>
-  <si>
-    <t>26-¿Qué momentos del día abarca tu jornada de trabajo?</t>
-  </si>
-  <si>
-    <t>27-¿Podés cambiar los horarios de trabajo?</t>
-  </si>
-  <si>
-    <t>28-¿Estás en este momento buscando trabajo? (Solo para quienes no trabajan)</t>
-  </si>
-  <si>
-    <t>29-¿Por quienes está integrado tu grupo familiar que vive actualmente con vos?</t>
-  </si>
-  <si>
-    <t>29-Padre</t>
-  </si>
-  <si>
-    <t>29-Madre</t>
-  </si>
-  <si>
-    <t>29-Hermanas/os</t>
-  </si>
-  <si>
-    <t>29-Abuelas/os</t>
-  </si>
-  <si>
-    <t>29-Esposa/o o Pareja</t>
-  </si>
-  <si>
-    <t>29-Hijas/os</t>
-  </si>
-  <si>
-    <t>29-Sobrinas/os</t>
-  </si>
-  <si>
-    <t>29-Amigas/os</t>
-  </si>
-  <si>
-    <t>29-Vivo sola/o</t>
-  </si>
-  <si>
-    <t>29-Otros (especificar)</t>
-  </si>
-  <si>
-    <t>30-¿Cuántas personas componen el grupo familiar que convive con vos actualmente? (incluido vos)</t>
-  </si>
-  <si>
-    <t>31-Cantidad de personas del grupo familiar que completaron estudios… (sin incluirte)</t>
-  </si>
-  <si>
-    <t>31-Universitarios</t>
-  </si>
-  <si>
-    <t>31-Terciario no Universitario</t>
-  </si>
-  <si>
-    <t>31-Medio o Polimodal</t>
-  </si>
-  <si>
-    <t>31-Primario o EGB</t>
-  </si>
-  <si>
-    <t>¿Cuántas personas de tu grupo familiar… (sin incluirte)</t>
-  </si>
-  <si>
-    <t>32-Trabajan</t>
-  </si>
-  <si>
-    <t>32-Tienen planes trabajar o similares</t>
-  </si>
-  <si>
-    <t>32-No trabajan pero están buscando trabajo</t>
-  </si>
-  <si>
-    <t>32-No trabajan porque estudian</t>
-  </si>
-  <si>
-    <t>32-No trabajan y no están buscando</t>
-  </si>
-  <si>
-    <t>32-Son jubilados o pensionados</t>
-  </si>
-  <si>
-    <t>33-Máximo Nivel de Instrucción de la Madre</t>
-  </si>
-  <si>
-    <t>33-Máximo Nivel de Instrucción del Padre</t>
-  </si>
-  <si>
-    <t>34-¿Tenés conocimientos de otros idiomas?</t>
-  </si>
-  <si>
-    <t>35-Nivel de conocimiento de idiomas</t>
-  </si>
-  <si>
-    <t>35-Inglés</t>
-  </si>
-  <si>
-    <t>35-Portugués</t>
-  </si>
-  <si>
-    <t>35-Francés</t>
-  </si>
-  <si>
-    <t>35-Otros Idiomas</t>
-  </si>
-  <si>
-    <t>36-¿Usas tu PC en…? (Lugares opciones)</t>
-  </si>
-  <si>
-    <t>37-Nivel de conocimiento de Procesador de Texto</t>
-  </si>
-  <si>
-    <t>37-Nivel de conocimiento de Planilla de Cálculo</t>
-  </si>
-  <si>
-    <t>37-Nivel de conocimiento de Navegación por Internet</t>
+    <t>6-Medio o forma por el_cual conoció la Universidad</t>
+  </si>
+  <si>
+    <t>7-¿Cursas actualmente en un establecimiento educacional?</t>
+  </si>
+  <si>
+    <t>8-¿Qué nivel estás cursando?</t>
+  </si>
+  <si>
+    <t>9-¿Cuál fue el nivel mas alto que terminaste?</t>
+  </si>
+  <si>
+    <t>10-¿Terminaste o estás cursando tus estudios en un Colegio?</t>
+  </si>
+  <si>
+    <t>11-¿El Colegio es… (Privado/Público)</t>
+  </si>
+  <si>
+    <t>12-Número del Colegio</t>
+  </si>
+  <si>
+    <t>13-Nombre del Colegio</t>
+  </si>
+  <si>
+    <t>14-País</t>
+  </si>
+  <si>
+    <t>14-Provincia</t>
+  </si>
+  <si>
+    <t>14-Partido/Depto</t>
+  </si>
+  <si>
+    <t>15-El Título que tenés o vas a tener es (Opciones)</t>
+  </si>
+  <si>
+    <t>16-Orientación del título de Nivel Medio o Polimodal</t>
+  </si>
+  <si>
+    <t>17-¿Pensás pedir alguna beca que te ayude a cubrir los gastos de estudios?</t>
+  </si>
+  <si>
+    <t>18-¿Tenés Obra Social y/o Mutual?</t>
+  </si>
+  <si>
+    <t>19-¿Trabajás actualmente?</t>
+  </si>
+  <si>
+    <t>20-La relación que hay entre tu trabajo y la Carrera que elegiste cursar es:</t>
+  </si>
+  <si>
+    <t>21-En tu trabajo principal sos...</t>
+  </si>
+  <si>
+    <t>22-¿En cuál de las siguientes ramas de la actividad ubicarías a tu trabajo principal?</t>
+  </si>
+  <si>
+    <t>24-¿Tu trabajo principal es?</t>
+  </si>
+  <si>
+    <t>25-En una semana normal de trabajo ¿cuántas horas trabajás?</t>
+  </si>
+  <si>
+    <t>26-Tus horarios son…</t>
+  </si>
+  <si>
+    <t>27-¿Qué momentos del día abarca tu jornada de trabajo?</t>
+  </si>
+  <si>
+    <t>28-¿Podés cambiar los horarios de trabajo?</t>
+  </si>
+  <si>
+    <t>29-¿Estás en este momento buscando trabajo? (Solo para quienes no trabajan)</t>
+  </si>
+  <si>
+    <t>30-¿Por quienes está integrado tu grupo familiar que vive actualmente con vos?</t>
+  </si>
+  <si>
+    <t>30-Padre</t>
+  </si>
+  <si>
+    <t>30-Madre</t>
+  </si>
+  <si>
+    <t>30-Hermanas/os</t>
+  </si>
+  <si>
+    <t>30-Abuelas/os</t>
+  </si>
+  <si>
+    <t>30-Esposa/o o Pareja</t>
+  </si>
+  <si>
+    <t>30-Hijas/os</t>
+  </si>
+  <si>
+    <t>30-Sobrinas/os</t>
+  </si>
+  <si>
+    <t>30-Amigas/os</t>
+  </si>
+  <si>
+    <t>30-Vivo sola/o</t>
+  </si>
+  <si>
+    <t>30-Otros (especificar)</t>
+  </si>
+  <si>
+    <t>31-¿Cuántas personas componen el grupo familiar que convive con vos actualmente? (incluido vos)</t>
+  </si>
+  <si>
+    <t>32-Cantidad de personas del grupo familiar que completaron estudios… (sin incluirte)</t>
+  </si>
+  <si>
+    <t>32-Universitarios</t>
+  </si>
+  <si>
+    <t>32-Terciario no Universitario</t>
+  </si>
+  <si>
+    <t>32-Medio o Polimodal</t>
+  </si>
+  <si>
+    <t>32-Primario o EGB</t>
+  </si>
+  <si>
+    <t>33-¿Cuántas personas de tu grupo familiar… (sin incluirte)</t>
+  </si>
+  <si>
+    <t>33-Trabajan</t>
+  </si>
+  <si>
+    <t>33-Tienen planes trabajar o similares</t>
+  </si>
+  <si>
+    <t>33-No trabajan pero están buscando trabajo</t>
+  </si>
+  <si>
+    <t>33-No trabajan porque estudian</t>
+  </si>
+  <si>
+    <t>33-No trabajan y no están buscando</t>
+  </si>
+  <si>
+    <t>33-Son jubilados o pensionados</t>
+  </si>
+  <si>
+    <t>34-Máximo Nivel de Instrucción de la Madre</t>
+  </si>
+  <si>
+    <t>34-Máximo Nivel de Instrucción del Padre</t>
+  </si>
+  <si>
+    <t>35-¿Tenés conocimientos de otros idiomas?</t>
+  </si>
+  <si>
+    <t>36-Nivel de conocimiento de idiomas</t>
+  </si>
+  <si>
+    <t>36-Inglés</t>
+  </si>
+  <si>
+    <t>36-Portugués</t>
+  </si>
+  <si>
+    <t>36-Francés</t>
+  </si>
+  <si>
+    <t>36-Otros Idiomas</t>
+  </si>
+  <si>
+    <t>37-¿Usas tu PC en…? (Lugares opciones)</t>
+  </si>
+  <si>
+    <t>38-Nivel de conocimiento de Procesador de Texto</t>
+  </si>
+  <si>
+    <t>38-Nivel de conocimiento de Planilla de Cálculo</t>
+  </si>
+  <si>
+    <t>38-Nivel de conocimiento de Navegación por Internet</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -360,19 +363,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,7 +416,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,507 +736,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E2D93B-5E5B-4FA5-8D67-BE793185F0A0}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="3" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="3" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="3" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="3" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="3" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="3" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="3" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="1"/>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:A55"/>
+  <mergeCells count="46">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
